--- a/distributedscheduling/resultados/novo/hilo_32_1024_100_NewMetrics.xlsx
+++ b/distributedscheduling/resultados/novo/hilo_32_1024_100_NewMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Estudos\TCC\git\distributedscheduling\resultados\novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB600E-1EEA-45D0-99A9-6CC4AE7C4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BE994A-74E0-46C4-8D15-D3D7B9EB07F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,106 +266,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -375,49 +293,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -489,6 +364,113 @@
         </top>
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
@@ -600,6 +582,85 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -636,24 +697,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -663,18 +708,29 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -696,77 +752,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
+        <right/>
         <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
+          <color theme="9" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
+          <color theme="9" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
@@ -5834,29 +5831,29 @@
     <sortCondition ref="B13:B22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2DC74DCC-560C-46A3-97F8-214ED0A30501}" name="Heuristica" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5744A6AA-289A-4CC9-BD4B-365A47A5BE22}" name="Makespan médio" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2C3B6B88-ECD1-484A-9334-CDD0BBFDD4A3}" name="Desvio Padrão Makespan" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AED9A367-CF86-43D7-B951-A38752444562}" name="makespan normalizado" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{2DC74DCC-560C-46A3-97F8-214ED0A30501}" name="Heuristica" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5744A6AA-289A-4CC9-BD4B-365A47A5BE22}" name="Makespan médio" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2C3B6B88-ECD1-484A-9334-CDD0BBFDD4A3}" name="Desvio Padrão Makespan" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AED9A367-CF86-43D7-B951-A38752444562}" name="makespan normalizado" dataDxfId="21">
       <calculatedColumnFormula>-((B14-$B$24)*2/($B$25-$B$24)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF8CF212-3BA9-4556-8A44-E71A68CFD1B3}" name="MPR" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CF8CF212-3BA9-4556-8A44-E71A68CFD1B3}" name="MPR" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAE46911-5E50-4C88-90FB-CD7D1392F199}" name="Tabela3" displayName="Tabela3" ref="A42:D51" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAE46911-5E50-4C88-90FB-CD7D1392F199}" name="Tabela3" displayName="Tabela3" ref="A42:D51" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A42:D51" xr:uid="{FAE46911-5E50-4C88-90FB-CD7D1392F199}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:D51">
     <sortCondition ref="B42:B51"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7A0ECFA-3051-4BE7-8A42-4BEB4E3F9B14}" name="Heuristica" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CF81C596-7E89-44FB-9CF5-BC5EA9EA6D00}" name="FlowTime médio" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5E100AD6-1CA9-432C-8D5B-2506ADF8B9E6}" name="Desvio Padrão Flowtime" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{91E90789-ACEA-48F1-B36D-00528B7F090D}" name="flowtime normalizado" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{A7A0ECFA-3051-4BE7-8A42-4BEB4E3F9B14}" name="Heuristica" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CF81C596-7E89-44FB-9CF5-BC5EA9EA6D00}" name="FlowTime médio" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5E100AD6-1CA9-432C-8D5B-2506ADF8B9E6}" name="Desvio Padrão Flowtime" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{91E90789-ACEA-48F1-B36D-00528B7F090D}" name="flowtime normalizado" dataDxfId="13">
       <calculatedColumnFormula>-((B43-$B$53)*2/($B$54-$B$53)-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5865,15 +5862,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CCA9943B-5066-4976-A16B-EC122A3B23AA}" name="Tabela6" displayName="Tabela6" ref="A57:C66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CCA9943B-5066-4976-A16B-EC122A3B23AA}" name="Tabela6" displayName="Tabela6" ref="A57:C66" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A57:C66" xr:uid="{CCA9943B-5066-4976-A16B-EC122A3B23AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C66">
     <sortCondition ref="B57:B66"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{88550BCA-15F0-4EB6-B68F-A77CF6C07CBB}" name="Heuristica" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{18255729-77F6-41F4-956A-B5BB33CEC2B0}" name="Utilização média das máquinas" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E0E2A87B-B633-4A01-82EB-5341859A26F4}" name="Desvio Padrão Utilização" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{88550BCA-15F0-4EB6-B68F-A77CF6C07CBB}" name="Heuristica" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{18255729-77F6-41F4-956A-B5BB33CEC2B0}" name="Utilização média das máquinas" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E0E2A87B-B633-4A01-82EB-5341859A26F4}" name="Desvio Padrão Utilização" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5886,23 +5883,23 @@
     <sortCondition ref="B28:B37"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78BF590B-7128-406D-8614-FF45C9FEDD22}" name="Heuristica" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2DC599D9-D2AA-45C2-9181-20FEF5F78A36}" name="Heuristic ETC/MET ETC" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{78BF590B-7128-406D-8614-FF45C9FEDD22}" name="Heuristica" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2DC599D9-D2AA-45C2-9181-20FEF5F78A36}" name="Heuristic ETC/MET ETC" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{219DBDA2-2B62-4BC8-9A28-B75583F01093}" name="Tabela4" displayName="Tabela4" ref="A75:C84" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{219DBDA2-2B62-4BC8-9A28-B75583F01093}" name="Tabela4" displayName="Tabela4" ref="A75:C84" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A75:C84" xr:uid="{219DBDA2-2B62-4BC8-9A28-B75583F01093}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:C84">
     <sortCondition ref="B75:B84"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{426B13CB-B118-453A-9FA4-2D1E9E5DCEFA}" name="Heuristica" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D079ACDF-619C-458E-8CAD-600866B8578A}" name="Tempo computacional médio" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A4DFEFFE-9E95-471C-A6F2-6641874DC497}" name="Desvio Padrão Tempo computacional" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{426B13CB-B118-453A-9FA4-2D1E9E5DCEFA}" name="Heuristica" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D079ACDF-619C-458E-8CAD-600866B8578A}" name="Tempo computacional médio" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A4DFEFFE-9E95-471C-A6F2-6641874DC497}" name="Desvio Padrão Tempo computacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6173,8 +6170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6229,31 +6226,31 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <v>390516.26699999999</v>
       </c>
       <c r="C2" s="8">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="7">
         <v>8780898.9100000001</v>
       </c>
       <c r="G2" s="8">
         <v>1.5709999999999998E-2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="7">
         <v>0.70599999999999996</v>
       </c>
       <c r="I2" s="8">
         <v>6.2460000000000002E-2</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="7">
         <v>0.13</v>
       </c>
       <c r="K2" s="8">
@@ -6264,31 +6261,31 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>300016.23499999999</v>
       </c>
       <c r="C3" s="8">
         <v>1.554E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>9325924.6999999993</v>
       </c>
       <c r="G3" s="8">
         <v>1.592E-2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>0.97199999999999998</v>
       </c>
       <c r="I3" s="8">
         <v>4.1700000000000001E-3</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="7">
         <v>0.15</v>
       </c>
       <c r="K3" s="8">
@@ -6299,31 +6296,31 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>285720.71899999998</v>
       </c>
       <c r="C4" s="8">
         <v>1.5859999999999999E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>1.0089999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>8858280.5800000001</v>
       </c>
       <c r="G4" s="8">
         <v>1.5509999999999999E-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <v>0.96899999999999997</v>
       </c>
       <c r="I4" s="8">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="7">
         <v>18.52</v>
       </c>
       <c r="K4" s="8">
@@ -6334,31 +6331,31 @@
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>280137.728</v>
       </c>
       <c r="C5" s="8">
         <v>1.554E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>1.016</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>8914263.1999999993</v>
       </c>
       <c r="G5" s="8">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>0.995</v>
       </c>
       <c r="I5" s="8">
         <v>1.34E-3</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="7">
         <v>48.75</v>
       </c>
       <c r="K5" s="8">
@@ -6369,31 +6366,31 @@
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>283994.42800000001</v>
       </c>
       <c r="C6" s="8">
         <v>1.6119999999999999E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>1.01</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>8865225.8000000007</v>
       </c>
       <c r="G6" s="8">
         <v>1.549E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <v>0.97599999999999998</v>
       </c>
       <c r="I6" s="8">
         <v>4.4799999999999996E-3</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="7">
         <v>19.77</v>
       </c>
       <c r="K6" s="8">
@@ -6404,31 +6401,31 @@
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>314241.37199999997</v>
       </c>
       <c r="C7" s="8">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>1.143</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>0.80500000000000005</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>10029489.27</v>
       </c>
       <c r="G7" s="8">
         <v>1.6830000000000001E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>0.998</v>
       </c>
       <c r="I7" s="8">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>35</v>
       </c>
       <c r="K7" s="8">
@@ -6439,31 +6436,31 @@
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>281247.93699999998</v>
       </c>
       <c r="C8" s="8">
         <v>1.546E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>1.0109999999999999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>8876157.0800000001</v>
       </c>
       <c r="G8" s="8">
         <v>1.5469999999999999E-2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="7">
         <v>0.98699999999999999</v>
       </c>
       <c r="I8" s="8">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="7">
         <v>19.77</v>
       </c>
       <c r="K8" s="8">
@@ -6474,31 +6471,31 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>328820.99099999998</v>
       </c>
       <c r="C9" s="8">
         <v>1.5310000000000001E-2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>1.1639999999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>0.84299999999999997</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>10216269.18</v>
       </c>
       <c r="G9" s="8">
         <v>1.5959999999999998E-2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <v>0.97099999999999997</v>
       </c>
       <c r="I9" s="8">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="7">
         <v>0.11</v>
       </c>
       <c r="K9" s="8">
@@ -6509,31 +6506,31 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>290133.09000000003</v>
       </c>
       <c r="C10" s="8">
         <v>1.609E-2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>1.0549999999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>9259134.5600000005</v>
       </c>
       <c r="G10" s="8">
         <v>1.609E-2</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="7">
         <v>0.998</v>
       </c>
       <c r="I10" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>56.33</v>
       </c>
       <c r="K10" s="8">
@@ -6561,17 +6558,17 @@
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>280137.728</v>
       </c>
       <c r="C14" s="8">
         <v>1.5859999999999999E-2</v>
       </c>
       <c r="D14" s="5">
-        <f>-((B14-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" ref="D14:D22" si="0">-((B14-$B$24)*2/($B$25-$B$24)-1)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>0.71799999999999997</v>
       </c>
     </row>
@@ -6579,17 +6576,17 @@
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>281247.93699999998</v>
       </c>
       <c r="C15" s="8">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="D15" s="5">
-        <f>-((B15-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.97988360762774773</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>0.72099999999999997</v>
       </c>
     </row>
@@ -6597,17 +6594,17 @@
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>283994.42800000001</v>
       </c>
       <c r="C16" s="8">
         <v>1.609E-2</v>
       </c>
       <c r="D16" s="5">
-        <f>-((B16-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.93011866192575687</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>0.72799999999999998</v>
       </c>
     </row>
@@ -6615,17 +6612,17 @@
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>285720.71899999998</v>
       </c>
       <c r="C17" s="8">
         <v>1.6119999999999999E-2</v>
       </c>
       <c r="D17" s="5">
-        <f>-((B17-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.89883919373131071</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>0.73199999999999998</v>
       </c>
     </row>
@@ -6633,17 +6630,17 @@
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>290133.09000000003</v>
       </c>
       <c r="C18" s="8">
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="D18" s="5">
-        <f>-((B18-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.81888939479439893</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>0.74299999999999999</v>
       </c>
     </row>
@@ -6651,17 +6648,17 @@
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>300016.23499999999</v>
       </c>
       <c r="C19" s="8">
         <v>1.546E-2</v>
       </c>
       <c r="D19" s="5">
-        <f>-((B19-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.63981210151730705</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>0.76900000000000002</v>
       </c>
     </row>
@@ -6669,17 +6666,17 @@
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>314241.37199999997</v>
       </c>
       <c r="C20" s="8">
         <v>1.554E-2</v>
       </c>
       <c r="D20" s="5">
-        <f>-((B20-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.38206023908325193</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>0.80500000000000005</v>
       </c>
     </row>
@@ -6687,17 +6684,17 @@
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>328820.99099999998</v>
       </c>
       <c r="C21" s="8">
         <v>1.5310000000000001E-2</v>
       </c>
       <c r="D21" s="5">
-        <f>-((B21-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.11788535269523759</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>0.84299999999999997</v>
       </c>
     </row>
@@ -6705,17 +6702,17 @@
       <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>390516.26699999999</v>
       </c>
       <c r="C22" s="8">
         <v>1.554E-2</v>
       </c>
       <c r="D22" s="5">
-        <f>-((B22-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6749,7 +6746,7 @@
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6757,7 +6754,7 @@
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>1.0089999999999999</v>
       </c>
     </row>
@@ -6765,7 +6762,7 @@
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <v>1.01</v>
       </c>
     </row>
@@ -6773,7 +6770,7 @@
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>1.0109999999999999</v>
       </c>
     </row>
@@ -6781,7 +6778,7 @@
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="7">
         <v>1.016</v>
       </c>
     </row>
@@ -6789,7 +6786,7 @@
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <v>1.0549999999999999</v>
       </c>
     </row>
@@ -6797,7 +6794,7 @@
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <v>1.0629999999999999</v>
       </c>
     </row>
@@ -6805,7 +6802,7 @@
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="7">
         <v>1.143</v>
       </c>
     </row>
@@ -6813,7 +6810,7 @@
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="7">
         <v>1.1639999999999999</v>
       </c>
     </row>
@@ -6836,14 +6833,14 @@
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="7">
         <v>8780898.9100000001</v>
       </c>
       <c r="C43" s="8">
         <v>1.5709999999999998E-2</v>
       </c>
       <c r="D43" s="3">
-        <f>-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" ref="D43:D51" si="1">-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>1</v>
       </c>
       <c r="E43"/>
@@ -6852,14 +6849,14 @@
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="7">
         <v>8858280.5800000001</v>
       </c>
       <c r="C44" s="8">
         <v>1.5509999999999999E-2</v>
       </c>
       <c r="D44" s="3">
-        <f>-((B44-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.89217880345257539</v>
       </c>
       <c r="E44"/>
@@ -6868,14 +6865,14 @@
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="7">
         <v>8865225.8000000007</v>
       </c>
       <c r="C45" s="8">
         <v>1.549E-2</v>
       </c>
       <c r="D45" s="3">
-        <f>-((B45-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.88250155132445285</v>
       </c>
       <c r="E45"/>
@@ -6884,14 +6881,14 @@
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="7">
         <v>8876157.0800000001</v>
       </c>
       <c r="C46" s="8">
         <v>1.5469999999999999E-2</v>
       </c>
       <c r="D46" s="3">
-        <f>-((B46-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.86727024797580632</v>
       </c>
       <c r="E46"/>
@@ -6900,14 +6897,14 @@
       <c r="A47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="7">
         <v>8914263.1999999993</v>
       </c>
       <c r="C47" s="8">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D47" s="3">
-        <f>-((B47-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.81417437327861175</v>
       </c>
       <c r="E47"/>
@@ -6916,14 +6913,14 @@
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="7">
         <v>9259134.5600000005</v>
       </c>
       <c r="C48" s="8">
         <v>1.609E-2</v>
       </c>
       <c r="D48" s="3">
-        <f>-((B48-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.33364141644092915</v>
       </c>
       <c r="E48"/>
@@ -6932,14 +6929,14 @@
       <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="7">
         <v>9325924.6999999993</v>
       </c>
       <c r="C49" s="8">
         <v>1.592E-2</v>
       </c>
       <c r="D49" s="3">
-        <f>-((B49-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>0.240578126228016</v>
       </c>
       <c r="E49"/>
@@ -6948,14 +6945,14 @@
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="7">
         <v>10029489.27</v>
       </c>
       <c r="C50" s="8">
         <v>1.6830000000000001E-2</v>
       </c>
       <c r="D50" s="3">
-        <f>-((B50-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.73974672054479673</v>
       </c>
       <c r="E50"/>
@@ -6964,14 +6961,14 @@
       <c r="A51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="7">
         <v>10216269.18</v>
       </c>
       <c r="C51" s="8">
         <v>1.5959999999999998E-2</v>
       </c>
       <c r="D51" s="3">
-        <f>-((B51-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E51"/>
@@ -7011,7 +7008,7 @@
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="7">
         <v>0.70599999999999996</v>
       </c>
       <c r="C58" s="8">
@@ -7024,7 +7021,7 @@
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="7">
         <v>0.96899999999999997</v>
       </c>
       <c r="C59" s="8">
@@ -7037,7 +7034,7 @@
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="7">
         <v>0.97099999999999997</v>
       </c>
       <c r="C60" s="8">
@@ -7050,7 +7047,7 @@
       <c r="A61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="7">
         <v>0.97199999999999998</v>
       </c>
       <c r="C61" s="8">
@@ -7063,7 +7060,7 @@
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="7">
         <v>0.97599999999999998</v>
       </c>
       <c r="C62" s="8">
@@ -7076,7 +7073,7 @@
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="7">
         <v>0.98699999999999999</v>
       </c>
       <c r="C63" s="8">
@@ -7089,7 +7086,7 @@
       <c r="A64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="7">
         <v>0.995</v>
       </c>
       <c r="C64" s="8">
@@ -7102,7 +7099,7 @@
       <c r="A65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="7">
         <v>0.998</v>
       </c>
       <c r="C65" s="8">
@@ -7115,7 +7112,7 @@
       <c r="A66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="7">
         <v>0.998</v>
       </c>
       <c r="C66" s="8">
@@ -7166,7 +7163,7 @@
       <c r="A76" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="7">
         <v>0.11</v>
       </c>
       <c r="C76" s="8">
@@ -7179,7 +7176,7 @@
       <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="7">
         <v>0.13</v>
       </c>
       <c r="C77" s="8">
@@ -7192,7 +7189,7 @@
       <c r="A78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="7">
         <v>0.15</v>
       </c>
       <c r="C78" s="8">
@@ -7205,7 +7202,7 @@
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="7">
         <v>18.52</v>
       </c>
       <c r="C79" s="8">
@@ -7218,7 +7215,7 @@
       <c r="A80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="7">
         <v>19.77</v>
       </c>
       <c r="C80" s="8">
@@ -7231,7 +7228,7 @@
       <c r="A81" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="7">
         <v>19.77</v>
       </c>
       <c r="C81" s="8">
@@ -7242,7 +7239,7 @@
       <c r="A82" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="7">
         <v>35</v>
       </c>
       <c r="C82" s="8">
@@ -7253,7 +7250,7 @@
       <c r="A83" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="7">
         <v>48.75</v>
       </c>
       <c r="C83" s="8">
@@ -7264,7 +7261,7 @@
       <c r="A84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="7">
         <v>56.33</v>
       </c>
       <c r="C84" s="8">
